--- a/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationlist.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationlist.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6605" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1582,7 +1582,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -1869,61 +1869,6 @@
     <t>According to the EPR ordonnance the PDF has to be in PDF/A-1 or PDF/A-2 format.</t>
   </si>
   <si>
-    <t>Composition.section:originalRepresentation.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html) or [Composition.section.text](http://hl7.org/fhir/R4/composition-definitions.html#Composition.section.text)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](StructureDefinition-originalText.html) which claims that the data is derived from the text provided or linked to.</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.display</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.display</t>
-  </si>
-  <si>
     <t>Composition.section:originalRepresentation.emptyReason</t>
   </si>
   <si>
@@ -1997,42 +1942,60 @@
     <t>medicationStatement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationstatement-list)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationstatement-list|http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationstatement-changed-list)
 </t>
   </si>
   <si>
-    <t>MedicationStatement (from MTP)</t>
+    <t>MedicationStatement (from MTP or PADV)</t>
   </si>
   <si>
     <t>Composition.section:list.entry:medicationStatement.id</t>
   </si>
   <si>
+    <t>Composition.section.entry.id</t>
+  </si>
+  <si>
     <t>Composition.section:list.entry:medicationStatement.extension</t>
   </si>
   <si>
+    <t>Composition.section.entry.extension</t>
+  </si>
+  <si>
     <t>Composition.section:list.entry:medicationStatement.reference</t>
   </si>
   <si>
+    <t>Composition.section.entry.reference</t>
+  </si>
+  <si>
     <t>Composition.section:list.entry:medicationStatement.type</t>
   </si>
   <si>
+    <t>Composition.section.entry.type</t>
+  </si>
+  <si>
     <t>Composition.section:list.entry:medicationStatement.identifier</t>
   </si>
   <si>
+    <t>Composition.section.entry.identifier</t>
+  </si>
+  <si>
     <t>Composition.section:list.entry:medicationStatement.display</t>
   </si>
   <si>
+    <t>Composition.section.entry.display</t>
+  </si>
+  <si>
     <t>Composition.section:list.entry:medicationRequest</t>
   </si>
   <si>
     <t>medicationRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationrequest-list)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationrequest-list|http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationrequest-changed-list)
 </t>
   </si>
   <si>
-    <t>MedicationRequest (from PRE)</t>
+    <t>MedicationRequest (from PRE or PADV)</t>
   </si>
   <si>
     <t>Composition.section:list.entry:medicationRequest.id</t>
@@ -2493,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO184"/>
+  <dimension ref="A1:AO177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2502,7 +2465,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -16484,7 +16447,7 @@
         <v>596</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16507,16 +16470,20 @@
         <v>80</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>172</v>
+        <v>564</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
       </c>
@@ -16540,13 +16507,13 @@
         <v>80</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>80</v>
@@ -16564,7 +16531,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>174</v>
+        <v>563</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16573,19 +16540,19 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>80</v>
@@ -16596,21 +16563,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>80</v>
@@ -16622,16 +16589,16 @@
         <v>80</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>177</v>
+        <v>572</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>178</v>
+        <v>573</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>157</v>
+        <v>574</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16669,19 +16636,19 @@
         <v>80</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>180</v>
+        <v>571</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -16690,19 +16657,19 @@
         <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>175</v>
+        <v>507</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>80</v>
+        <v>575</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>80</v>
@@ -16713,20 +16680,20 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C122" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>92</v>
@@ -16741,17 +16708,15 @@
         <v>80</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>602</v>
+        <v>372</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>80</v>
@@ -16800,7 +16765,7 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>180</v>
+        <v>502</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -16812,16 +16777,16 @@
         <v>80</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>143</v>
+        <v>506</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>80</v>
@@ -16832,10 +16797,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>607</v>
+        <v>509</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16855,20 +16820,18 @@
         <v>80</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -16917,7 +16880,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -16926,16 +16889,16 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
@@ -16949,21 +16912,21 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>609</v>
+        <v>510</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>80</v>
@@ -16972,19 +16935,19 @@
         <v>80</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17010,13 +16973,13 @@
         <v>80</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>80</v>
@@ -17034,25 +16997,25 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -17066,44 +17029,46 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>80</v>
       </c>
@@ -17151,25 +17116,25 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>80</v>
@@ -17183,18 +17148,18 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>613</v>
+        <v>512</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>92</v>
@@ -17206,21 +17171,23 @@
         <v>80</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>298</v>
+        <v>605</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>80</v>
       </c>
@@ -17268,7 +17235,7 @@
         <v>80</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>301</v>
+        <v>512</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17286,10 +17253,10 @@
         <v>80</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>80</v>
@@ -17300,10 +17267,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17311,7 +17278,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>92</v>
@@ -17329,16 +17296,16 @@
         <v>192</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>80</v>
@@ -17348,7 +17315,7 @@
         <v>80</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>80</v>
@@ -17363,13 +17330,13 @@
         <v>80</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>80</v>
@@ -17387,7 +17354,7 @@
         <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -17396,7 +17363,7 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>104</v>
@@ -17405,10 +17372,10 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>570</v>
+        <v>251</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>80</v>
@@ -17419,10 +17386,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17433,7 +17400,7 @@
         <v>81</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>80</v>
@@ -17445,18 +17412,18 @@
         <v>80</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>80</v>
       </c>
@@ -17504,7 +17471,7 @@
         <v>80</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -17513,7 +17480,7 @@
         <v>82</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>104</v>
@@ -17522,34 +17489,32 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>507</v>
+        <v>329</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>575</v>
+        <v>330</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>92</v>
@@ -17564,15 +17529,17 @@
         <v>80</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>618</v>
+        <v>530</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>80</v>
@@ -17621,28 +17588,28 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>506</v>
+        <v>104</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>80</v>
@@ -17653,10 +17620,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17664,7 +17631,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>92</v>
@@ -17679,15 +17646,17 @@
         <v>80</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>172</v>
+        <v>611</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>80</v>
@@ -17736,7 +17705,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>174</v>
+        <v>534</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -17745,19 +17714,19 @@
         <v>92</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>175</v>
+        <v>539</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>80</v>
@@ -17768,21 +17737,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>80</v>
@@ -17794,18 +17763,20 @@
         <v>80</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>177</v>
+        <v>541</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>178</v>
+        <v>542</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>80</v>
       </c>
@@ -17829,13 +17800,13 @@
         <v>80</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>80</v>
@@ -17853,77 +17824,77 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM131" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>385</v>
+        <v>549</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>386</v>
+        <v>550</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>158</v>
+        <v>552</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>80</v>
@@ -17948,13 +17919,13 @@
         <v>80</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>80</v>
@@ -17972,28 +17943,28 @@
         <v>80</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>135</v>
+        <v>555</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>80</v>
@@ -18004,21 +17975,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>80</v>
@@ -18030,20 +18001,18 @@
         <v>80</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>171</v>
+        <v>498</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>623</v>
+        <v>557</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>80</v>
       </c>
@@ -18079,28 +18048,26 @@
         <v>80</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="AC133" s="2"/>
       <c r="AD133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>104</v>
@@ -18109,10 +18076,10 @@
         <v>80</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>348</v>
+        <v>561</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>349</v>
+        <v>562</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>80</v>
@@ -18123,21 +18090,23 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C134" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="D134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>80</v>
@@ -18149,20 +18118,18 @@
         <v>80</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>192</v>
+        <v>618</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>80</v>
       </c>
@@ -18171,7 +18138,7 @@
         <v>80</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>625</v>
+        <v>80</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>80</v>
@@ -18186,13 +18153,13 @@
         <v>80</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>80</v>
@@ -18210,16 +18177,16 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>104</v>
@@ -18228,10 +18195,10 @@
         <v>80</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>251</v>
+        <v>561</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>252</v>
+        <v>562</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>80</v>
@@ -18242,10 +18209,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18256,7 +18223,7 @@
         <v>81</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>80</v>
@@ -18268,18 +18235,16 @@
         <v>80</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>526</v>
+        <v>171</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>527</v>
+        <v>172</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>528</v>
+        <v>173</v>
       </c>
       <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>80</v>
       </c>
@@ -18327,53 +18292,53 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>525</v>
+        <v>174</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>80</v>
@@ -18385,16 +18350,16 @@
         <v>80</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>498</v>
+        <v>137</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>530</v>
+        <v>177</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>531</v>
+        <v>178</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>532</v>
+        <v>157</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -18432,40 +18397,40 @@
         <v>80</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>529</v>
+        <v>180</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>80</v>
@@ -18476,10 +18441,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>534</v>
+        <v>625</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18499,19 +18464,19 @@
         <v>80</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>629</v>
+        <v>279</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>536</v>
+        <v>280</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>537</v>
+        <v>281</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18561,7 +18526,7 @@
         <v>80</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>534</v>
+        <v>282</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -18570,7 +18535,7 @@
         <v>92</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>538</v>
+        <v>283</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>104</v>
@@ -18579,10 +18544,10 @@
         <v>80</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>539</v>
+        <v>135</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>80</v>
@@ -18593,10 +18558,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>627</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18616,23 +18581,21 @@
         <v>80</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>541</v>
+        <v>285</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>542</v>
+        <v>286</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>80</v>
       </c>
@@ -18656,13 +18619,13 @@
         <v>80</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>545</v>
+        <v>288</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>546</v>
+        <v>289</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>80</v>
@@ -18680,7 +18643,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -18698,24 +18661,24 @@
         <v>80</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>547</v>
+        <v>135</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>548</v>
+        <v>629</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18735,23 +18698,21 @@
         <v>80</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>549</v>
+        <v>292</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>550</v>
+        <v>293</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>80</v>
       </c>
@@ -18775,13 +18736,13 @@
         <v>80</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>553</v>
+        <v>80</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>80</v>
@@ -18799,7 +18760,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>548</v>
+        <v>295</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -18817,10 +18778,10 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>555</v>
+        <v>296</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>80</v>
@@ -18831,10 +18792,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18845,7 +18806,7 @@
         <v>81</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>80</v>
@@ -18854,19 +18815,19 @@
         <v>80</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>498</v>
+        <v>171</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>557</v>
+        <v>298</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>558</v>
+        <v>299</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>559</v>
+        <v>300</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -18904,26 +18865,28 @@
         <v>80</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AC140" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>556</v>
+        <v>301</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>104</v>
@@ -18932,10 +18895,10 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>561</v>
+        <v>135</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>80</v>
@@ -18946,13 +18909,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>80</v>
@@ -18974,10 +18937,10 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M141" t="s" s="2">
         <v>558</v>
@@ -19065,10 +19028,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19180,10 +19143,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19297,10 +19260,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19414,10 +19377,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19531,10 +19494,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19648,10 +19611,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19765,13 +19728,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>80</v>
@@ -19793,10 +19756,10 @@
         <v>80</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>558</v>
@@ -19884,10 +19847,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19999,10 +19962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20116,10 +20079,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20233,10 +20196,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20350,10 +20313,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20467,10 +20430,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20584,13 +20547,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>80</v>
@@ -20612,10 +20575,10 @@
         <v>80</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>558</v>
@@ -20703,10 +20666,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20818,10 +20781,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20935,10 +20898,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21052,10 +21015,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21169,10 +21132,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21286,10 +21249,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21403,14 +21366,12 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
         <v>80</v>
       </c>
@@ -21419,7 +21380,7 @@
         <v>81</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>80</v>
@@ -21431,18 +21392,20 @@
         <v>80</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>666</v>
+        <v>192</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O162" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P162" t="s" s="2">
         <v>80</v>
       </c>
@@ -21466,13 +21429,13 @@
         <v>80</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>80</v>
@@ -21490,13 +21453,13 @@
         <v>80</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>560</v>
@@ -21508,10 +21471,10 @@
         <v>80</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>562</v>
+        <v>175</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>80</v>
@@ -21522,10 +21485,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21536,7 +21499,7 @@
         <v>81</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>80</v>
@@ -21548,15 +21511,17 @@
         <v>80</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>172</v>
+        <v>572</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N163" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
         <v>80</v>
@@ -21605,28 +21570,28 @@
         <v>80</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>174</v>
+        <v>571</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>175</v>
+        <v>507</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>80</v>
+        <v>575</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>80</v>
@@ -21637,21 +21602,23 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C164" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>665</v>
+      </c>
       <c r="D164" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>80</v>
@@ -21663,17 +21630,15 @@
         <v>80</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>177</v>
+        <v>666</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>80</v>
@@ -21710,19 +21675,19 @@
         <v>80</v>
       </c>
       <c r="AB164" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC164" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>180</v>
+        <v>502</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
@@ -21734,16 +21699,16 @@
         <v>80</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>143</v>
+        <v>506</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>175</v>
+        <v>507</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>80</v>
@@ -21754,10 +21719,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>607</v>
+        <v>509</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21765,7 +21730,7 @@
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>92</v>
@@ -21777,20 +21742,18 @@
         <v>80</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>80</v>
@@ -21839,7 +21802,7 @@
         <v>80</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>81</v>
@@ -21848,16 +21811,16 @@
         <v>92</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>80</v>
@@ -21871,21 +21834,21 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>609</v>
+        <v>510</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>80</v>
@@ -21894,19 +21857,19 @@
         <v>80</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -21932,13 +21895,13 @@
         <v>80</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>80</v>
@@ -21956,25 +21919,25 @@
         <v>80</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>80</v>
@@ -21988,44 +21951,46 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O167" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P167" t="s" s="2">
         <v>80</v>
       </c>
@@ -22073,25 +22038,25 @@
         <v>80</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>80</v>
@@ -22105,18 +22070,18 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>613</v>
+        <v>512</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>92</v>
@@ -22128,21 +22093,23 @@
         <v>80</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>298</v>
+        <v>671</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O168" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P168" t="s" s="2">
         <v>80</v>
       </c>
@@ -22190,7 +22157,7 @@
         <v>80</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>301</v>
+        <v>512</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>81</v>
@@ -22208,10 +22175,10 @@
         <v>80</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>80</v>
@@ -22222,10 +22189,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22233,7 +22200,7 @@
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>92</v>
@@ -22251,16 +22218,16 @@
         <v>192</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>80</v>
@@ -22270,7 +22237,7 @@
         <v>80</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>80</v>
@@ -22285,13 +22252,13 @@
         <v>80</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>80</v>
@@ -22309,7 +22276,7 @@
         <v>80</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>81</v>
@@ -22318,7 +22285,7 @@
         <v>92</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>104</v>
@@ -22327,10 +22294,10 @@
         <v>80</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>570</v>
+        <v>251</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>80</v>
@@ -22341,10 +22308,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22355,7 +22322,7 @@
         <v>81</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H170" t="s" s="2">
         <v>80</v>
@@ -22367,18 +22334,18 @@
         <v>80</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O170" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>80</v>
       </c>
@@ -22426,7 +22393,7 @@
         <v>80</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>81</v>
@@ -22435,7 +22402,7 @@
         <v>82</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>104</v>
@@ -22444,28 +22411,26 @@
         <v>80</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>507</v>
+        <v>329</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>575</v>
+        <v>330</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
         <v>80</v>
       </c>
@@ -22486,15 +22451,17 @@
         <v>80</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>678</v>
+        <v>530</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N171" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>80</v>
@@ -22543,28 +22510,28 @@
         <v>80</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>506</v>
+        <v>104</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>80</v>
@@ -22575,10 +22542,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22586,7 +22553,7 @@
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>92</v>
@@ -22601,15 +22568,17 @@
         <v>80</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>172</v>
+        <v>611</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>80</v>
@@ -22658,7 +22627,7 @@
         <v>80</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>174</v>
+        <v>534</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>81</v>
@@ -22667,19 +22636,19 @@
         <v>92</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>175</v>
+        <v>539</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>80</v>
@@ -22690,21 +22659,21 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>80</v>
@@ -22716,18 +22685,20 @@
         <v>80</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>177</v>
+        <v>541</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>178</v>
+        <v>542</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O173" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P173" t="s" s="2">
         <v>80</v>
       </c>
@@ -22751,13 +22722,13 @@
         <v>80</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>80</v>
@@ -22775,77 +22746,77 @@
         <v>80</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL173" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM173" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM173" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>385</v>
+        <v>549</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>386</v>
+        <v>550</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>158</v>
+        <v>552</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>80</v>
@@ -22870,13 +22841,13 @@
         <v>80</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>80</v>
@@ -22894,28 +22865,28 @@
         <v>80</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>135</v>
+        <v>555</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>80</v>
@@ -22926,21 +22897,21 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>80</v>
@@ -22952,20 +22923,18 @@
         <v>80</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>171</v>
+        <v>498</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>683</v>
+        <v>557</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>80</v>
       </c>
@@ -23013,16 +22982,16 @@
         <v>80</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>104</v>
@@ -23031,10 +23000,10 @@
         <v>80</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>348</v>
+        <v>561</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>349</v>
+        <v>562</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>80</v>
@@ -23045,10 +23014,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23056,7 +23025,7 @@
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>92</v>
@@ -23074,16 +23043,16 @@
         <v>192</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>80</v>
@@ -23093,7 +23062,7 @@
         <v>80</v>
       </c>
       <c r="S176" t="s" s="2">
-        <v>685</v>
+        <v>80</v>
       </c>
       <c r="T176" t="s" s="2">
         <v>80</v>
@@ -23108,13 +23077,13 @@
         <v>80</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>80</v>
@@ -23132,7 +23101,7 @@
         <v>80</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>81</v>
@@ -23141,7 +23110,7 @@
         <v>92</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>104</v>
@@ -23150,10 +23119,10 @@
         <v>80</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>251</v>
+        <v>570</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>80</v>
@@ -23164,10 +23133,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23178,7 +23147,7 @@
         <v>81</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>80</v>
@@ -23190,18 +23159,18 @@
         <v>80</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N177" s="2"/>
-      <c r="O177" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
         <v>80</v>
       </c>
@@ -23249,7 +23218,7 @@
         <v>80</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>81</v>
@@ -23258,7 +23227,7 @@
         <v>82</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>104</v>
@@ -23267,840 +23236,15 @@
         <v>80</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>329</v>
+        <v>507</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>330</v>
+        <v>575</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q178" s="2"/>
-      <c r="R178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO178" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C179" s="2"/>
-      <c r="D179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O179" s="2"/>
-      <c r="P179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q179" s="2"/>
-      <c r="R179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL179" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AM179" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AN179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO179" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="F180" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q180" s="2"/>
-      <c r="R180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL180" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO180" t="s" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E181" s="2"/>
-      <c r="F181" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="P181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q181" s="2"/>
-      <c r="R181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO181" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O182" s="2"/>
-      <c r="P182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q182" s="2"/>
-      <c r="R182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="P183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q183" s="2"/>
-      <c r="R183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E184" s="2"/>
-      <c r="F184" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O184" s="2"/>
-      <c r="P184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q184" s="2"/>
-      <c r="R184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO184" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationlist.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationlist.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6605" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6605" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1271,7 +1271,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>Composition.attester:legalAuthenticator.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
 </t>
   </si>
   <si>
@@ -1649,7 +1649,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1838,10 +1838,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.focus</t>
@@ -2465,15 +2461,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2484,27 +2480,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15764,7 +15760,7 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>527</v>
@@ -15855,7 +15851,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>529</v>
@@ -15972,7 +15968,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>534</v>
@@ -16001,7 +15997,7 @@
         <v>122</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>536</v>
@@ -16089,7 +16085,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>540</v>
@@ -16208,7 +16204,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>548</v>
@@ -16327,7 +16323,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>556</v>
@@ -16353,10 +16349,10 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>558</v>
@@ -16444,7 +16440,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>563</v>
@@ -16563,7 +16559,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>571</v>
@@ -16680,13 +16676,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>502</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>80</v>
@@ -16711,7 +16707,7 @@
         <v>372</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>504</v>
@@ -16797,7 +16793,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>509</v>
@@ -16912,7 +16908,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>510</v>
@@ -17029,7 +17025,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>511</v>
@@ -17148,7 +17144,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>512</v>
@@ -17177,7 +17173,7 @@
         <v>171</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>515</v>
@@ -17267,7 +17263,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>518</v>
@@ -17315,7 +17311,7 @@
         <v>80</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>80</v>
@@ -17386,7 +17382,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>525</v>
@@ -17503,7 +17499,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>529</v>
@@ -17620,7 +17616,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>534</v>
@@ -17649,7 +17645,7 @@
         <v>122</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>536</v>
@@ -17737,7 +17733,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>540</v>
@@ -17856,7 +17852,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>548</v>
@@ -17975,7 +17971,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>556</v>
@@ -18048,7 +18044,7 @@
         <v>80</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AC133" s="2"/>
       <c r="AD133" t="s" s="2">
@@ -18090,13 +18086,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>80</v>
@@ -18118,10 +18114,10 @@
         <v>80</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>558</v>
@@ -18209,10 +18205,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18324,10 +18320,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18441,10 +18437,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18558,10 +18554,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18675,10 +18671,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18792,10 +18788,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18909,13 +18905,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>80</v>
@@ -18937,10 +18933,10 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M141" t="s" s="2">
         <v>558</v>
@@ -19028,10 +19024,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19143,10 +19139,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19260,10 +19256,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19377,10 +19373,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19494,10 +19490,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19611,10 +19607,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19728,13 +19724,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>80</v>
@@ -19756,10 +19752,10 @@
         <v>80</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>558</v>
@@ -19847,10 +19843,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19962,10 +19958,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20079,10 +20075,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20196,10 +20192,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20313,10 +20309,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20430,10 +20426,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20547,13 +20543,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>556</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>80</v>
@@ -20575,10 +20571,10 @@
         <v>80</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>558</v>
@@ -20666,10 +20662,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20781,10 +20777,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20898,10 +20894,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21015,10 +21011,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21132,10 +21128,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21249,10 +21245,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21366,7 +21362,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>563</v>
@@ -21485,7 +21481,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>571</v>
@@ -21602,13 +21598,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>502</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>80</v>
@@ -21633,7 +21629,7 @@
         <v>372</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>504</v>
@@ -21719,7 +21715,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>509</v>
@@ -21834,7 +21830,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>510</v>
@@ -21951,7 +21947,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>511</v>
@@ -22070,7 +22066,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>512</v>
@@ -22099,7 +22095,7 @@
         <v>171</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>515</v>
@@ -22189,7 +22185,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>518</v>
@@ -22237,7 +22233,7 @@
         <v>80</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>80</v>
@@ -22308,7 +22304,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>525</v>
@@ -22425,7 +22421,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>529</v>
@@ -22542,7 +22538,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>534</v>
@@ -22571,7 +22567,7 @@
         <v>122</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>536</v>
@@ -22659,7 +22655,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>540</v>
@@ -22778,7 +22774,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>548</v>
@@ -22897,7 +22893,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>556</v>
@@ -23014,7 +23010,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>563</v>
@@ -23133,7 +23129,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>571</v>
